--- a/assets/format/formatimport.xlsx
+++ b/assets/format/formatimport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nama Ekraf</t>
   </si>
@@ -81,13 +81,55 @@
   </si>
   <si>
     <t>Omzet</t>
+  </si>
+  <si>
+    <t>PT A</t>
+  </si>
+  <si>
+    <t>JL  Bunga</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>pribadi</t>
+  </si>
+  <si>
+    <t>indonesia</t>
+  </si>
+  <si>
+    <t>bahan</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>banyak</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>indo</t>
+  </si>
+  <si>
+    <t>2019-02-02</t>
+  </si>
+  <si>
+    <t>Dinoyo</t>
+  </si>
+  <si>
+    <t>Lowokwaru</t>
+  </si>
+  <si>
+    <t>Kriya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,22 +137,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,13 +160,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,89 +465,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2">
+        <v>12111</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="S2" s="2">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>